--- a/data/AI4Society Budget proposal.xlsx
+++ b/data/AI4Society Budget proposal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnaez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB50C4-997E-2047-AEB8-90671EB022C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF66F615-EF1B-194A-8B5E-980D654CAAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="620" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Budget</t>
-  </si>
-  <si>
     <t>Details</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>PI</t>
   </si>
   <si>
     <t xml:space="preserve">Used so far </t>
@@ -54,6 +45,15 @@
   <si>
     <t>YOUR NAME</t>
   </si>
+  <si>
+    <t>DATE (approx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who is in charge of this expense? </t>
+  </si>
+  <si>
+    <t>BUDGET</t>
+  </si>
 </sst>
 </file>
 
@@ -74,12 +74,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -121,7 +123,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +154,18 @@
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -159,19 +173,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -265,55 +266,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,13 +555,14 @@
   <dimension ref="A1:Z220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="52.5" customWidth="1"/>
-    <col min="2" max="3" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="51.5" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
@@ -550,8 +570,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>10</v>
+      <c r="A1" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -580,8 +600,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
-        <v>7</v>
+      <c r="A2" s="19" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -610,17 +630,17 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -641,25 +661,23 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15">
-        <v>10000</v>
+      <c r="E4" s="12" t="s">
+        <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>3</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>6</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -682,18 +700,18 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
+      <c r="A5" s="13" t="s">
+        <v>1</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="14">
         <f>SUM(G5:G63)</f>
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -715,18 +733,18 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
+      <c r="A6" s="15" t="s">
+        <v>2</v>
       </c>
-      <c r="B6" s="18" t="e">
-        <f ca="1">MINUS(B4,B5)</f>
-        <v>#NAME?</v>
+      <c r="B6" s="16">
+        <f>(B4-B5)</f>
+        <v>0</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -751,10 +769,10 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -779,10 +797,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -807,10 +825,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -835,10 +853,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -863,10 +881,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -891,10 +909,10 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -919,10 +937,10 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -947,10 +965,10 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -975,10 +993,10 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1003,10 +1021,10 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1031,10 +1049,10 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1059,10 +1077,10 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1087,10 +1105,10 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1115,10 +1133,10 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1143,10 +1161,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1171,10 +1189,10 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1199,10 +1217,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1227,10 +1245,10 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1255,10 +1273,10 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1283,10 +1301,10 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1311,10 +1329,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1339,10 +1357,10 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1367,10 +1385,10 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1395,10 +1413,10 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1423,10 +1441,10 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1451,10 +1469,10 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1479,10 +1497,10 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1507,10 +1525,10 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1535,10 +1553,10 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1563,10 +1581,10 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1591,10 +1609,10 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1619,10 +1637,10 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -1647,10 +1665,10 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -1675,10 +1693,10 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -1703,10 +1721,10 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -1731,10 +1749,10 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -1759,10 +1777,10 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -1787,10 +1805,10 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="14"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -1815,10 +1833,10 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="14"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -1843,10 +1861,10 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="14"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -1871,10 +1889,10 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -1899,10 +1917,10 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -1927,10 +1945,10 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="14"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -1955,10 +1973,10 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="14"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -1983,10 +2001,10 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -2011,10 +2029,10 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="14"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -2039,10 +2057,10 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -2067,10 +2085,10 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="14"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -2095,10 +2113,10 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="14"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -2123,10 +2141,10 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -2151,10 +2169,10 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="7"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -2179,10 +2197,10 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="14"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="7"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -2207,10 +2225,10 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="14"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="7"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -2235,10 +2253,10 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="14"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="7"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -2263,10 +2281,10 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="14"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="7"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -2291,10 +2309,10 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="14"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -2319,10 +2337,10 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="14"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="7"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
